--- a/public/Format Import.xlsx
+++ b/public/Format Import.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ecosystem\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09B3967-7D8E-43CE-BC2F-7584C5AF2A4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4D787C-30CE-4BF6-A986-254D0244EBBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{1E1D009C-8BAC-4F3E-BE9F-A309466D7683}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1E1D009C-8BAC-4F3E-BE9F-A309466D7683}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Import" sheetId="1" r:id="rId1"/>
+    <sheet name="Setting" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,17 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>NPWP</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Kode Barang</t>
   </si>
   <si>
-    <t>Nama</t>
-  </si>
-  <si>
     <t>Harga Satuan</t>
   </si>
   <si>
@@ -60,9 +55,6 @@
     <t>PPN</t>
   </si>
   <si>
-    <t>Tarif PPN</t>
-  </si>
-  <si>
     <t>PPNBM</t>
   </si>
   <si>
@@ -72,27 +64,12 @@
     <t>No Faktur</t>
   </si>
   <si>
-    <t>Perusahaan</t>
-  </si>
-  <si>
     <t>Alamat</t>
   </si>
   <si>
-    <t>Jumlah DPP</t>
-  </si>
-  <si>
-    <t>Jumlah PPN</t>
-  </si>
-  <si>
-    <t>Jumlah PPNBM</t>
-  </si>
-  <si>
     <t>FG Uang Muka</t>
   </si>
   <si>
-    <t>Keterangan</t>
-  </si>
-  <si>
     <t>Uang Muka DPP</t>
   </si>
   <si>
@@ -105,53 +82,94 @@
     <t>Referensi</t>
   </si>
   <si>
-    <t>Catatan :</t>
-  </si>
-  <si>
-    <t>Contoh</t>
-  </si>
-  <si>
-    <t>Hapus Isian ini dan biarkan judulnya</t>
-  </si>
-  <si>
-    <t>Tidak dizinkan menggunkan koma pada angka/koma di ganti titik</t>
-  </si>
-  <si>
-    <t>jika nilai 0 maka dapat di birkan kosong</t>
+    <t>Tarif PPNBM</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
-    <t>Ongkos Angkut Batubara Tanjung Cilegon Tanggal 21 Februari 2023</t>
-  </si>
-  <si>
-    <t>0052381084722</t>
-  </si>
-  <si>
-    <t>CV.KARUNIA ABADI</t>
-  </si>
-  <si>
-    <t>JL.YASIR HADI BROTO PERUM Blok AAO No.000 RT:000 RW:000 Kel.TANJUNG DAMAI LESTARI Kec.TANJUNGRAYA KEDAMAIAN Kota/Kab.BANDAR LAMPUNG LAMPUNG 38128</t>
-  </si>
-  <si>
-    <t>031248750324000</t>
-  </si>
-  <si>
-    <t>format tanggal (yyyy-mm-dd) misal: 2023/12/01</t>
-  </si>
-  <si>
-    <t>Pastikan alamat &amp; perusahaan sama dengan hasil export etax (copy melalui export etax)</t>
+    <t>NPWP/NIK</t>
+  </si>
+  <si>
+    <t>Nama Barang</t>
+  </si>
+  <si>
+    <t>Nama NPWP/NIK</t>
+  </si>
+  <si>
+    <t>ID Keterangan Tambahan</t>
+  </si>
+  <si>
+    <t>Kode Dokumen Pendukung</t>
+  </si>
+  <si>
+    <t>1673015605720001</t>
+  </si>
+  <si>
+    <t>YANTI</t>
+  </si>
+  <si>
+    <t>JL.PRUMNAS NIKEN BLOCK B1 NO.08</t>
+  </si>
+  <si>
+    <t>840 X Rp.1033</t>
+  </si>
+  <si>
+    <t>0042352397870</t>
+  </si>
+  <si>
+    <t>Jenis Transaksi</t>
+  </si>
+  <si>
+    <t>Jeni Faktur</t>
+  </si>
+  <si>
+    <t>Kepada Pihak Yang Bukan Pemungut</t>
+  </si>
+  <si>
+    <t>Kepada Pemungut Bendaharawan</t>
+  </si>
+  <si>
+    <t>DPP Nilai Lain</t>
+  </si>
+  <si>
+    <t>Penyerahan Lainnya</t>
+  </si>
+  <si>
+    <t>Besaran Tertentu (Pasal 9A ayat (1) UU PPN)</t>
+  </si>
+  <si>
+    <t>Kepada Pemungut Selain Bendaharawan</t>
+  </si>
+  <si>
+    <t>Senjata, Amunisi, Helm Anti Peluru</t>
+  </si>
+  <si>
+    <t>ID Keterangan Tambahan 08</t>
+  </si>
+  <si>
+    <t>ID Keterangan Tambahan 07</t>
+  </si>
+  <si>
+    <t>Faktur Pajak</t>
+  </si>
+  <si>
+    <t>Penyerahan Yang PPN-nya Tidak Dipungut</t>
+  </si>
+  <si>
+    <t>Penyerahan Yang PPN-nya Dibebaskan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +197,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -188,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -196,58 +221,62 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -560,265 +589,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C6860E-518B-4B96-A056-3477492E079F}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" style="13" customWidth="1"/>
     <col min="13" max="13" width="17.88671875" customWidth="1"/>
     <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="85" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="15.109375" customWidth="1"/>
-    <col min="19" max="19" width="10.77734375" customWidth="1"/>
-    <col min="20" max="20" width="13.77734375" customWidth="1"/>
-    <col min="21" max="21" width="15.21875" customWidth="1"/>
-    <col min="22" max="22" width="14.77734375" customWidth="1"/>
-    <col min="23" max="23" width="21.109375" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.33203125" customWidth="1"/>
+    <col min="18" max="18" width="30.33203125" customWidth="1"/>
+    <col min="19" max="19" width="13.77734375" customWidth="1"/>
+    <col min="20" max="20" width="15.21875" customWidth="1"/>
+    <col min="21" max="21" width="14.77734375" customWidth="1"/>
+    <col min="22" max="22" width="21.109375" customWidth="1"/>
+    <col min="23" max="23" width="24.33203125" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="T1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45168</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="18">
+        <v>1033</v>
+      </c>
+      <c r="F2" s="17">
         <v>1</v>
       </c>
+      <c r="G2" s="12">
+        <f>E2*F2</f>
+        <v>1033</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <f>G2-H2</f>
+        <v>1033</v>
+      </c>
+      <c r="J2" s="12">
+        <f>I2*(11/100)</f>
+        <v>113.63</v>
+      </c>
+      <c r="K2" s="17">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="X2" s="9"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="3"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{18CF0B83-2F3D-4193-B623-2EF5FBF4797B}">
+      <formula1>"Faktur Pajak,Faktur Pajak Pengganti"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{7BDC6474-5CD7-4A4A-AD0C-0D195F66A494}">
+          <x14:formula1>
+            <xm:f>Setting!$C$2:$C$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9ACCCF07-051A-46C6-BE5A-E90E36DF1E55}">
+          <x14:formula1>
+            <xm:f>IF(Q2 = "Penyerahan yang PPN-nya Tidak Dipungut",Setting!$A$2, IF(Q2 = "Penyerahan yang PPN-nya Dibebaskan",Setting!$B$2, $Y$2  ) )</xm:f>
+          </x14:formula1>
+          <xm:sqref>R2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9CE182-866F-45D6-BA57-14453DDF5A61}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>45164</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>10000</v>
-      </c>
-      <c r="E9" s="7">
-        <v>5</v>
-      </c>
-      <c r="F9" s="7">
-        <v>50000</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>50000</v>
-      </c>
-      <c r="I9" s="7">
-        <v>5500</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="15" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="13" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="14">
-        <v>50000</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>5500</v>
-      </c>
-      <c r="R9" s="14">
-        <v>0</v>
-      </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="14">
-        <v>0</v>
-      </c>
-      <c r="U9" s="14">
-        <v>0</v>
-      </c>
-      <c r="V9" s="14">
-        <v>0</v>
-      </c>
-      <c r="W9" s="14">
-        <v>0</v>
-      </c>
-      <c r="X9" s="13"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="M13" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>